--- a/output/关注信息流-上新组合列表.xlsx
+++ b/output/关注信息流-上新组合列表.xlsx
@@ -27,66 +27,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="127">
-  <si>
-    <t>类目名称</t>
-  </si>
-  <si>
-    <t>商品ID</t>
-  </si>
-  <si>
-    <t>随机商品ID</t>
-  </si>
-  <si>
-    <t>第几天</t>
-  </si>
-  <si>
-    <t>商品ID1</t>
-  </si>
-  <si>
-    <t>商品ID2</t>
-  </si>
-  <si>
-    <t>商品ID3</t>
-  </si>
-  <si>
-    <t>商品ID4</t>
-  </si>
-  <si>
-    <t>营销标题</t>
-  </si>
-  <si>
-    <t>营销正文</t>
-  </si>
-  <si>
-    <t>信息类型</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="119">
   <si>
     <t xml:space="preserve">  女装/女士精品&gt;  T恤</t>
   </si>
   <si>
-    <t>[890829811172, 891079150085, 891857484353, 890294349475, 889631055877, 890616428379]</t>
-  </si>
-  <si>
-    <t>[889631055877, 891857484353, 890829811172, 890616428379]</t>
-  </si>
-  <si>
-    <t>889631055877</t>
-  </si>
-  <si>
-    <t>891857484353</t>
-  </si>
-  <si>
-    <t>890829811172</t>
-  </si>
-  <si>
-    <t>890616428379</t>
-  </si>
-  <si>
-    <t>夏日T恤上新啦！🔥</t>
-  </si>
-  <si>
-    <t>姐妹们！这件T恤也太好穿了吧！柔软亲肤，随便搭配都好看！穿上它，轻松get夏日甜酷风~  你pick什么颜色？</t>
+    <t>[903906451896, 905058216907, 903968948818, 903941432145]</t>
+  </si>
+  <si>
+    <t>903906451896</t>
+  </si>
+  <si>
+    <t>905058216907</t>
+  </si>
+  <si>
+    <t>903968948818</t>
+  </si>
+  <si>
+    <t>903941432145</t>
+  </si>
+  <si>
+    <t>新品T恤来袭！</t>
+  </si>
+  <si>
+    <t>盛夏光年，一件舒适透气的T恤，让你自在如风，如同张爱玲笔下独立女性般优雅从容。</t>
   </si>
   <si>
     <t>上新</t>
@@ -95,319 +59,331 @@
     <t xml:space="preserve">  女装/女士精品&gt;  半身裙</t>
   </si>
   <si>
-    <t>[891801752584, 891232141182, 891595828861, 891587796458, 891188353671, 891550756558, 890761486113, 891175281964, 890283322502]</t>
-  </si>
-  <si>
-    <t>[891188353671, 891595828861, 891232141182, 891587796458]</t>
-  </si>
-  <si>
-    <t>891188353671</t>
-  </si>
-  <si>
-    <t>891595828861</t>
-  </si>
-  <si>
-    <t>891232141182</t>
-  </si>
-  <si>
-    <t>891587796458</t>
-  </si>
-  <si>
-    <t>半身裙夏日新款！🌸</t>
-  </si>
-  <si>
-    <t>这条半身裙真的绝了！高腰设计巨显腿长，搭配T恤衬衫都超时尚！💃  快来分享你的穿搭吧！</t>
+    <t>[904683885004, 904205418560, 904046200023, 902426270325, 902879949636, 902373542166, 902828881820]</t>
+  </si>
+  <si>
+    <t>[904046200023, 902426270325, 902879949636, 904683885004]</t>
+  </si>
+  <si>
+    <t>904046200023</t>
+  </si>
+  <si>
+    <t>902426270325</t>
+  </si>
+  <si>
+    <t>902879949636</t>
+  </si>
+  <si>
+    <t>904683885004</t>
+  </si>
+  <si>
+    <t>半身裙，气质新品</t>
+  </si>
+  <si>
+    <t>半身裙轻盈飘逸，舞动着自信与优雅，正如亦舒所言：做一个精致的女子，活出自己的精彩。</t>
   </si>
   <si>
     <t xml:space="preserve">  女装/女士精品&gt;  衬衫</t>
   </si>
   <si>
-    <t>[891563248731, 891555540926, 891081836177, 890300074221, 890711229553, 891002508726, 889971099499, 890204594865, 890610221174, 889589539224, 890245221793, 889551271283, 890210737382, 890454392097]</t>
-  </si>
-  <si>
-    <t>[890245221793, 891081836177, 891563248731, 890300074221]</t>
-  </si>
-  <si>
-    <t>890245221793</t>
-  </si>
-  <si>
-    <t>891081836177</t>
-  </si>
-  <si>
-    <t>891563248731</t>
-  </si>
-  <si>
-    <t>890300074221</t>
-  </si>
-  <si>
-    <t>衬衫夏款来袭！✨</t>
-  </si>
-  <si>
-    <t>气质衬衫上线啦！简约百搭，上班约会都OK！  穿上它，你就是最靓的仔！✨  你更喜欢什么风格的衬衫呢？</t>
+    <t>[905056772241, 904167078313, 904164770593, 905043768030, 903859443982, 903822527113, 904988820876, 904967664739, 903900950373, 904774684694, 904763208777, 904329449658, 903664941894, 902907671402, 903193490155, 903159238877]</t>
+  </si>
+  <si>
+    <t>[904967664739, 904988820876, 904167078313, 904164770593]</t>
+  </si>
+  <si>
+    <t>904967664739</t>
+  </si>
+  <si>
+    <t>904988820876</t>
+  </si>
+  <si>
+    <t>904167078313</t>
+  </si>
+  <si>
+    <t>904164770593</t>
+  </si>
+  <si>
+    <t>衬衫新品，好看到哭</t>
+  </si>
+  <si>
+    <t>衬衫的简洁干练，衬托出你的知性与魅力，正如三毛笔下的洒脱与自由，穿出你的独立姿态。</t>
   </si>
   <si>
     <t xml:space="preserve">  女装/女士精品&gt;  裤子&gt;  休闲裤</t>
   </si>
   <si>
-    <t>[890817303690, 891066606301, 891844748966, 889969907412, 890208690003, 889829694834, 890214621029]</t>
-  </si>
-  <si>
-    <t>[890208690003, 891066606301, 889829694834, 890817303690]</t>
-  </si>
-  <si>
-    <t>890208690003</t>
-  </si>
-  <si>
-    <t>891066606301</t>
-  </si>
-  <si>
-    <t>889829694834</t>
-  </si>
-  <si>
-    <t>890817303690</t>
-  </si>
-  <si>
-    <t>休闲裤夏上新！🌊</t>
-  </si>
-  <si>
-    <t>舒适休闲裤来啦！垂感好，显瘦又百搭！  穿上它，轻松拥有慵懒时尚感！🧘‍♀️  你最喜欢什么样的休闲裤呢？</t>
+    <t>[902475519877, 902473559256, 903223877732, 902171795031, 903324036531, 902160607524]</t>
+  </si>
+  <si>
+    <t>[902473559256, 902171795031, 903223877732, 902475519877]</t>
+  </si>
+  <si>
+    <t>902473559256</t>
+  </si>
+  <si>
+    <t>902171795031</t>
+  </si>
+  <si>
+    <t>903223877732</t>
+  </si>
+  <si>
+    <t>902475519877</t>
+  </si>
+  <si>
+    <t>休闲裤，舒适新品</t>
+  </si>
+  <si>
+    <t>休闲裤舒适自在，行走间尽显洒脱，如同林徽因般，从容优雅地走过人生的四季。</t>
   </si>
   <si>
     <t xml:space="preserve">  女装/女士精品&gt;  连衣裙</t>
   </si>
   <si>
-    <t>[891810928342, 891808512431, 890282182968, 891061192658]</t>
-  </si>
-  <si>
-    <t>891810928342</t>
-  </si>
-  <si>
-    <t>891808512431</t>
-  </si>
-  <si>
-    <t>890282182968</t>
-  </si>
-  <si>
-    <t>891061192658</t>
-  </si>
-  <si>
-    <t>连衣裙夏日必备！👗</t>
-  </si>
-  <si>
-    <t>仙女必备连衣裙！穿上它，瞬间气质up！约会、拍照都超美！💖  你更喜欢什么款式的连衣裙呢？</t>
-  </si>
-  <si>
-    <t>[891857484353, 891079150085, 890616428379, 890294349475]</t>
-  </si>
-  <si>
-    <t>891079150085</t>
-  </si>
-  <si>
-    <t>890294349475</t>
-  </si>
-  <si>
-    <t>夏日T恤来啦！☀️</t>
-  </si>
-  <si>
-    <t>夏日必备T恤！透气舒适，款式多样！  快来get同款，一起美美过夏天！☀️  你最喜欢哪款T恤呢？</t>
-  </si>
-  <si>
-    <t>[891550756558, 891587796458, 891595828861, 891188353671]</t>
-  </si>
-  <si>
-    <t>891550756558</t>
-  </si>
-  <si>
-    <t>夏日半身裙上新！🌼</t>
-  </si>
-  <si>
-    <t>百搭半身裙来袭！各种风格都能hold住！  搭配不同上衣，轻松打造不同风格！💖  你最喜欢什么风格的穿搭？</t>
-  </si>
-  <si>
-    <t>[891555540926, 891002508726, 890204594865, 890610221174]</t>
-  </si>
-  <si>
-    <t>891555540926</t>
-  </si>
-  <si>
-    <t>891002508726</t>
-  </si>
-  <si>
-    <t>890204594865</t>
-  </si>
-  <si>
-    <t>890610221174</t>
-  </si>
-  <si>
-    <t>夏日衬衫来啦！🌟</t>
-  </si>
-  <si>
-    <t>高级感衬衫！面料舒适，剪裁精致！  上班通勤，气质满满！💼  你想搭配什么类型的下装呢？</t>
-  </si>
-  <si>
-    <t>[890817303690, 890208690003, 890214621029, 889969907412]</t>
-  </si>
-  <si>
-    <t>890214621029</t>
-  </si>
-  <si>
-    <t>889969907412</t>
-  </si>
-  <si>
-    <t>休闲裤夏日新款！⛱️</t>
-  </si>
-  <si>
-    <t>显瘦休闲裤！舒适透气，让你轻松拥有大长腿！🦵  快来get同款，一起变美吧！  你平时喜欢怎么搭配休闲裤呢？</t>
-  </si>
-  <si>
-    <t>连衣裙夏日上新！🍉</t>
-  </si>
-  <si>
-    <t>气质连衣裙！穿上它，你就是这条街最靓的仔！✨  约会、聚会都超合适！  你更喜欢什么场合穿连衣裙呢？</t>
-  </si>
-  <si>
-    <t>[890294349475, 891079150085, 890616428379, 891857484353]</t>
-  </si>
-  <si>
-    <t>夏日T恤上新！🔥</t>
-  </si>
-  <si>
-    <t>解锁夏日清爽穿搭！一件T恤搞定所有！舒适透气，百搭时尚，你值得拥有！✨  快来分享你的T恤穿搭吧！</t>
-  </si>
-  <si>
-    <t>[891232141182, 891587796458, 891595828861, 891550756558]</t>
-  </si>
-  <si>
-    <t>半身裙夏上新！😍</t>
-  </si>
-  <si>
-    <t>高腰半身裙显瘦又气质！轻松穿出大长腿，搭配衬衫或T恤都超美！💖  你的半身裙搭配技巧是什么呢？</t>
-  </si>
-  <si>
-    <t>[890204594865, 890300074221, 891563248731, 891081836177]</t>
-  </si>
-  <si>
-    <t>衬衫夏日新款！✨</t>
-  </si>
-  <si>
-    <t>气质衬衫，通勤约会两相宜！不同的面料和款式，打造你的专属风格！🌸  你最喜欢哪种款式的衬衫呢？</t>
-  </si>
-  <si>
-    <t>[890208690003, 890817303690, 890214621029, 889829694834]</t>
-  </si>
-  <si>
-    <t>休闲裤夏款来啦！🌊</t>
-  </si>
-  <si>
-    <t>休闲裤yyds！舒适又时尚，上班休闲都能轻松驾驭！💯  分享你的休闲裤穿搭look吧！</t>
-  </si>
-  <si>
-    <t>连衣裙夏上新！💐</t>
-  </si>
-  <si>
-    <t>仙女必备连衣裙！穿上它，你就是这条街最靓的仔！💫  你最爱的连衣裙款式是什么样的呢？</t>
-  </si>
-  <si>
-    <t>[890829811172, 890294349475, 889631055877, 891079150085]</t>
-  </si>
-  <si>
-    <t>夏日T恤来袭！☀️</t>
-  </si>
-  <si>
-    <t>T恤控看过来！简约不简单的T恤，让你轻松拥有高级感！😎  快来分享你的T恤搭配秘诀吧！</t>
-  </si>
-  <si>
-    <t>[891587796458, 891175281964, 891232141182, 891550756558]</t>
-  </si>
-  <si>
-    <t>891175281964</t>
-  </si>
-  <si>
-    <t>夏日美裙来啦！🎀</t>
-  </si>
-  <si>
-    <t>百搭半身裙，让你轻松拥有多种风格！搭配衬衫、T恤，都能穿出不一样的感觉！👗  你最喜欢哪种风格的半身裙搭配呢？</t>
-  </si>
-  <si>
-    <t>[890210737382, 890610221174, 891081836177, 889551271283]</t>
-  </si>
-  <si>
-    <t>890210737382</t>
-  </si>
-  <si>
-    <t>889551271283</t>
-  </si>
-  <si>
-    <t>夏日衬衫必备！🍀</t>
-  </si>
-  <si>
-    <t>衬衫搭配小心机！让你轻松拥有职场OL气质！💼  分享你的衬衫穿搭技巧吧！</t>
-  </si>
-  <si>
-    <t>[890817303690, 890208690003, 891844748966, 890214621029]</t>
-  </si>
-  <si>
-    <t>891844748966</t>
-  </si>
-  <si>
-    <t>夏日休闲裤！😎</t>
-  </si>
-  <si>
-    <t>舒适休闲裤，让你轻松拥有舒适感！不同颜色，不同风格，总有一款适合你！👖  你最喜欢哪种款式的休闲裤呢？</t>
-  </si>
-  <si>
-    <t>夏日连衣裙！🦋</t>
-  </si>
-  <si>
-    <t>连衣裙让你轻松拥有优雅气质！多种款式，总有一款适合你！👑  快来分享你的连衣裙穿搭吧！</t>
-  </si>
-  <si>
-    <t>[889631055877, 891079150085, 890294349475, 890616428379]</t>
-  </si>
-  <si>
-    <t>初秋必备T恤！穿上它，轻松拥有法式慵懒风～高级质感面料，舒适透气，搭配半身裙或牛仔裤都超好看！你最喜欢哪个颜色呢？😍</t>
-  </si>
-  <si>
-    <t>[890283322502, 891550756558, 890761486113, 891188353671]</t>
-  </si>
-  <si>
-    <t>890283322502</t>
-  </si>
-  <si>
-    <t>890761486113</t>
-  </si>
-  <si>
-    <t>半身裙夏日来袭！👗</t>
-  </si>
-  <si>
-    <t>温柔系半身裙上线啦！🌸  A字版型，遮肉显瘦，搭配T恤、衬衫都美呆了！这个秋天，你值得拥有！仙女们，你们喜欢什么颜色？💖</t>
-  </si>
-  <si>
-    <t>[890204594865, 891081836177, 890454392097, 890210737382]</t>
-  </si>
-  <si>
-    <t>890454392097</t>
-  </si>
-  <si>
-    <t>衬衫夏上新，美翻天！✨</t>
-  </si>
-  <si>
-    <t>气质衬衫，通勤约会两不误！✨  简约设计，高级感十足，搭配牛仔裤、阔腿裤都超有范儿！快来pick你的专属衬衫吧！想看搭配教程吗？🙋🏻‍♀️</t>
-  </si>
-  <si>
-    <t>[890208690003, 889969907412, 890817303690, 891844748966]</t>
-  </si>
-  <si>
-    <t>休闲裤，夏日必备！🩳</t>
-  </si>
-  <si>
-    <t>休闲裤yyds！舒适又百搭！👖  简直是懒人女孩的福音！穿上它，轻松出街，随意又时尚！姐妹们，你们喜欢哪种风格的休闲裤呢？😎</t>
-  </si>
-  <si>
-    <t>连衣裙夏日新款！💖</t>
-  </si>
-  <si>
-    <t>一袭连衣裙，轻松搞定夏日穿搭！👗  各种款式，总有一款适合你！穿上它，你就是这条街最靓的仔！小仙女们，你们更喜欢哪种风格的连衣裙呢？✨</t>
+    <t>[904362837625, 903891930381, 903598899672, 904063048589, 904053544670, 902776803476, 902775519645, 903056354937]</t>
+  </si>
+  <si>
+    <t>[903598899672, 904053544670, 904362837625, 902775519645]</t>
+  </si>
+  <si>
+    <t>903598899672</t>
+  </si>
+  <si>
+    <t>904053544670</t>
+  </si>
+  <si>
+    <t>904362837625</t>
+  </si>
+  <si>
+    <t>902775519645</t>
+  </si>
+  <si>
+    <t>连衣裙新品上架</t>
+  </si>
+  <si>
+    <t>连衣裙的浪漫与优雅，为你增添一份独特的魅力，正如张小娴笔下，爱情的甜蜜与美好，如同这裙装般令人心动。</t>
+  </si>
+  <si>
+    <t>T恤新品，绝美</t>
+  </si>
+  <si>
+    <t>T恤的百搭与舒适，让你在日常生活中轻松自在，如同简·奥斯汀笔下女性的理性与智慧，展现你的独特魅力。</t>
+  </si>
+  <si>
+    <t>[904046200023, 904683885004, 904205418560, 902373542166]</t>
+  </si>
+  <si>
+    <t>904205418560</t>
+  </si>
+  <si>
+    <t>902373542166</t>
+  </si>
+  <si>
+    <t>A字裙新品上市</t>
+  </si>
+  <si>
+    <t>半身裙的百变风格，满足你对时尚的所有幻想，如同琦君笔下，生活中的点点滴滴都充满诗意。</t>
+  </si>
+  <si>
+    <t>[903193490155, 904774684694, 903900950373, 904329449658]</t>
+  </si>
+  <si>
+    <t>903193490155</t>
+  </si>
+  <si>
+    <t>904774684694</t>
+  </si>
+  <si>
+    <t>903900950373</t>
+  </si>
+  <si>
+    <t>904329449658</t>
+  </si>
+  <si>
+    <t>气质衬衫新品</t>
+  </si>
+  <si>
+    <t>衬衫的经典款设计，彰显你的品味与格调，如同龙应台般，温婉而富有力量，展现你的独特魅力。</t>
+  </si>
+  <si>
+    <t>[903223877732, 902473559256, 903324036531, 902171795031]</t>
+  </si>
+  <si>
+    <t>903324036531</t>
+  </si>
+  <si>
+    <t>休闲裤，巨显瘦新品</t>
+  </si>
+  <si>
+    <t>休闲裤的舒适与便捷，让你轻松应对各种场合，如同李碧华笔下，女性的坚韧与独立，展现你的从容优雅。</t>
+  </si>
+  <si>
+    <t>[903891930381, 903598899672, 904063048589, 903056354937]</t>
+  </si>
+  <si>
+    <t>903891930381</t>
+  </si>
+  <si>
+    <t>904063048589</t>
+  </si>
+  <si>
+    <t>903056354937</t>
+  </si>
+  <si>
+    <t>仙女连衣裙新品</t>
+  </si>
+  <si>
+    <t>连衣裙的时尚与潮流，让你成为人群中最闪耀的焦点，如同席慕蓉笔下，诗意的浪漫，让你更加迷人。</t>
+  </si>
+  <si>
+    <t>夏日新品T恤来啦！</t>
+  </si>
+  <si>
+    <t>舒适透气的T恤，让你的夏天轻盈如风，如同张爱玲笔下女子般优雅从容。</t>
+  </si>
+  <si>
+    <t>[904205418560, 902373542166, 902828881820, 902426270325]</t>
+  </si>
+  <si>
+    <t>902828881820</t>
+  </si>
+  <si>
+    <t>气质新品半身裙</t>
+  </si>
+  <si>
+    <t>半身裙轻盈飘逸，舞动着自信与美丽，正如三毛所言：心之所向，素履以往。</t>
+  </si>
+  <si>
+    <t>[904774684694, 902907671402, 904763208777, 905056772241]</t>
+  </si>
+  <si>
+    <t>902907671402</t>
+  </si>
+  <si>
+    <t>904763208777</t>
+  </si>
+  <si>
+    <t>905056772241</t>
+  </si>
+  <si>
+    <t>百搭新品衬衫上线</t>
+  </si>
+  <si>
+    <t>一件精致衬衫，点亮你的优雅气质，正如亦舒笔下独立女性般自信闪耀。</t>
+  </si>
+  <si>
+    <t>[902475519877, 902160607524, 902473559256, 903223877732]</t>
+  </si>
+  <si>
+    <t>902160607524</t>
+  </si>
+  <si>
+    <t>舒适新品休闲裤</t>
+  </si>
+  <si>
+    <t>休闲裤舒适百搭，轻松驾驭各种场合，正如林徽因般内外兼修，舒适自在。</t>
+  </si>
+  <si>
+    <t>[903598899672, 903056354937, 902776803476, 903891930381]</t>
+  </si>
+  <si>
+    <t>902776803476</t>
+  </si>
+  <si>
+    <t>优雅新品连衣裙</t>
+  </si>
+  <si>
+    <t>一件连衣裙，优雅自信，展现女性魅力，如同张小娴笔下爱情般浪漫美好。</t>
+  </si>
+  <si>
+    <t>清凉新品T恤来袭</t>
+  </si>
+  <si>
+    <t>经典百搭T恤，舒适透气，轻松穿出好心情，正如龙应台笔下母爱的温暖与力量。</t>
+  </si>
+  <si>
+    <t>[902373542166, 904205418560, 902879949636, 902828881820]</t>
+  </si>
+  <si>
+    <t>显瘦新品半身裙</t>
+  </si>
+  <si>
+    <t>百褶半身裙，优雅灵动，展现你的独特魅力，正如席慕容诗歌般温柔细腻。</t>
+  </si>
+  <si>
+    <t>[904967664739, 904164770593, 903159238877, 904988820876]</t>
+  </si>
+  <si>
+    <t>903159238877</t>
+  </si>
+  <si>
+    <t>潮流新品衬衫推荐</t>
+  </si>
+  <si>
+    <t>优质衬衫，提升你的职场形象，成就你的自信人生，正如苏童笔下女性的坚韧与美丽。</t>
+  </si>
+  <si>
+    <t>[902171795031, 903324036531, 902160607524, 903223877732]</t>
+  </si>
+  <si>
+    <t>透气新品休闲裤</t>
+  </si>
+  <si>
+    <t>柔软舒适休闲裤，休闲时尚两不误，如同简·奥斯汀笔下女性般独立自主。</t>
+  </si>
+  <si>
+    <t>[903891930381, 904362837625, 902775519645, 904063048589]</t>
+  </si>
+  <si>
+    <t>甜美新品连衣裙</t>
+  </si>
+  <si>
+    <t>飘逸连衣裙，让你在夏日里绽放迷人光彩，正如张爱玲笔下旗袍般优雅迷人。</t>
+  </si>
+  <si>
+    <t>T恤新品来袭!</t>
+  </si>
+  <si>
+    <t>夏日炎炎，一件舒适透气的T恤，给你带来清凉与自信，正如张爱玲所说：“喜欢一个人，会卑微到尘埃里，然后开出花来。”穿上它，绽放属于你的美丽。</t>
+  </si>
+  <si>
+    <t>[904683885004, 902879949636, 902426270325, 902373542166]</t>
+  </si>
+  <si>
+    <t>半身裙，超火!</t>
+  </si>
+  <si>
+    <t>半身裙的优雅与浪漫，让你在生活中散发迷人魅力，“生活是一袭华美的袍，爬满了虱子”，但一件美丽的半身裙，能让你在生活的缝隙中找到一丝光亮。</t>
+  </si>
+  <si>
+    <t>[905043768030, 904329449658, 904774684694, 903900950373]</t>
+  </si>
+  <si>
+    <t>905043768030</t>
+  </si>
+  <si>
+    <t>衬衫新品上市!</t>
+  </si>
+  <si>
+    <t>衬衫的干练与知性，赋予你职场上的自信与从容，“生命是一条奔流不息的河流”，而一件合适的衬衫，便是你乘风破浪的船桨。</t>
+  </si>
+  <si>
+    <t>[902171795031, 902160607524, 903223877732, 902473559256]</t>
+  </si>
+  <si>
+    <t>休闲裤，绝了!</t>
+  </si>
+  <si>
+    <t>休闲裤的舒适与随意，让你在休闲时光中尽情享受生活，“你必须非常努力，才能看起来毫不费力”，穿上它，轻松拥有舒适与时尚。</t>
+  </si>
+  <si>
+    <t>[904053544670, 904063048589, 902775519645, 902776803476]</t>
+  </si>
+  <si>
+    <t>连衣裙，真香!</t>
+  </si>
+  <si>
+    <t>连衣裙的飘逸与灵动，让你在夏日里展现女性的柔美与优雅，“我们曾经如此渴望命运的波澜，到最后才发现，人生最曼妙的风景，竟是内心的淡定与从容”，穿上它，遇见最美的自己。</t>
   </si>
 </sst>
 </file>
@@ -420,21 +396,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,7 +549,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,6 +558,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -781,27 +749,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -905,19 +858,28 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -926,135 +888,124 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1404,919 +1355,895 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A7" sqref="$A7:$XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="6" width="11.5"/>
+    <col min="7" max="7" width="21.25" customWidth="1"/>
+    <col min="8" max="8" width="26.125" customWidth="1"/>
+    <col min="10" max="10" width="87.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="J13" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="I17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="H19" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K19" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="I20" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="J20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K20" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H21" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I21" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K21" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="J22" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="K22" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J23" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K23" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D24">
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="I24" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="J24" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K24" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="I25" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="J25" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="K25" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H26" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="J26" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="K26" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/output/关注信息流-上新组合列表.xlsx
+++ b/output/关注信息流-上新组合列表.xlsx
@@ -27,7 +27,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="128">
+  <si>
+    <t>类目名称</t>
+  </si>
+  <si>
+    <t>商品ID</t>
+  </si>
+  <si>
+    <t>随机商品ID</t>
+  </si>
+  <si>
+    <t>第几天</t>
+  </si>
+  <si>
+    <t>商品ID1</t>
+  </si>
+  <si>
+    <t>商品ID2</t>
+  </si>
+  <si>
+    <t>商品ID3</t>
+  </si>
+  <si>
+    <t>商品ID4</t>
+  </si>
+  <si>
+    <t>营销标题</t>
+  </si>
+  <si>
+    <t>营销正文</t>
+  </si>
+  <si>
+    <t>信息类型</t>
+  </si>
   <si>
     <t xml:space="preserve">  女装/女士精品&gt;  T恤</t>
   </si>
@@ -47,10 +80,10 @@
     <t>903941432145</t>
   </si>
   <si>
-    <t>新品T恤来袭！</t>
-  </si>
-  <si>
-    <t>盛夏光年，一件舒适透气的T恤，让你自在如风，如同张爱玲笔下独立女性般优雅从容。</t>
+    <t>新款T恤来啦！</t>
+  </si>
+  <si>
+    <t>舒适透气的T恤，做自己的女王，穿出自在与自信。“女人应该像树一样，即使风吹雨打，也能挺拔地站在那里。”</t>
   </si>
   <si>
     <t>上新</t>
@@ -62,328 +95,322 @@
     <t>[904683885004, 904205418560, 904046200023, 902426270325, 902879949636, 902373542166, 902828881820]</t>
   </si>
   <si>
-    <t>[904046200023, 902426270325, 902879949636, 904683885004]</t>
+    <t>[902373542166, 902879949636, 902828881820, 904683885004]</t>
+  </si>
+  <si>
+    <t>902373542166</t>
+  </si>
+  <si>
+    <t>902879949636</t>
+  </si>
+  <si>
+    <t>902828881820</t>
+  </si>
+  <si>
+    <t>904683885004</t>
+  </si>
+  <si>
+    <t>气质半身裙上新</t>
+  </si>
+  <si>
+    <t>百搭半身裙，优雅与洒脱并存，你的时尚由你定义。“自信的女人最美丽，独立的女人最有魅力。”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  女装/女士精品&gt;  衬衫</t>
+  </si>
+  <si>
+    <t>[905056772241, 904167078313, 904164770593, 905043768030, 903859443982, 903822527113, 904988820876, 904967664739, 903900950373, 904774684694, 904763208777, 904329449658, 903664941894, 902907671402, 903193490155, 903159238877]</t>
+  </si>
+  <si>
+    <t>[904167078313, 903193490155, 903159238877, 904967664739]</t>
+  </si>
+  <si>
+    <t>904167078313</t>
+  </si>
+  <si>
+    <t>903193490155</t>
+  </si>
+  <si>
+    <t>903159238877</t>
+  </si>
+  <si>
+    <t>904967664739</t>
+  </si>
+  <si>
+    <t>衬衫新款上市</t>
+  </si>
+  <si>
+    <t>干练衬衫，成就职场女性的优雅干练。“独立自主是女性最重要的品质，不依赖任何人，活出精彩的自己。”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  女装/女士精品&gt;  裤子&gt;  休闲裤</t>
+  </si>
+  <si>
+    <t>[902475519877, 902473559256, 903223877732, 902171795031, 903324036531, 902160607524]</t>
+  </si>
+  <si>
+    <t>[903324036531, 902171795031, 902160607524, 902475519877]</t>
+  </si>
+  <si>
+    <t>903324036531</t>
+  </si>
+  <si>
+    <t>902171795031</t>
+  </si>
+  <si>
+    <t>902160607524</t>
+  </si>
+  <si>
+    <t>902475519877</t>
+  </si>
+  <si>
+    <t>休闲裤新款推荐</t>
+  </si>
+  <si>
+    <t>休闲裤，舒适随意，拥抱自由的灵魂。“人生是一场马拉松，女人要学会为自己而跑。”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  女装/女士精品&gt;  连衣裙</t>
+  </si>
+  <si>
+    <t>[904362837625, 903891930381, 903598899672, 904063048589, 904053544670, 902776803476, 902775519645, 903056354937]</t>
+  </si>
+  <si>
+    <t>[904362837625, 903598899672, 903891930381, 902775519645]</t>
+  </si>
+  <si>
+    <t>904362837625</t>
+  </si>
+  <si>
+    <t>903598899672</t>
+  </si>
+  <si>
+    <t>903891930381</t>
+  </si>
+  <si>
+    <t>902775519645</t>
+  </si>
+  <si>
+    <t>连衣裙新款驾到</t>
+  </si>
+  <si>
+    <t>浪漫连衣裙，展现女性的柔美与独立。“一个女人，应该有自己的事业，有自己的爱好，有自己的生活。”</t>
+  </si>
+  <si>
+    <t>T恤新品上市</t>
+  </si>
+  <si>
+    <t>柔软亲肤的T恤，释放你的活力与自信，做最真实的自己。“女性的自由，不是没有束缚，而是选择自己想要的生活方式。”</t>
+  </si>
+  <si>
+    <t>[904205418560, 902828881820, 902426270325, 902373542166]</t>
+  </si>
+  <si>
+    <t>904205418560</t>
+  </si>
+  <si>
+    <t>902426270325</t>
+  </si>
+  <si>
+    <t>百褶裙新款来袭</t>
+  </si>
+  <si>
+    <t>百褶半身裙，轻盈飘逸，穿出你的独立与自信。“世界属于那些相信自己美丽的人。”</t>
+  </si>
+  <si>
+    <t>[903159238877, 903859443982, 904164770593, 905043768030]</t>
+  </si>
+  <si>
+    <t>903859443982</t>
+  </si>
+  <si>
+    <t>904164770593</t>
+  </si>
+  <si>
+    <t>905043768030</t>
+  </si>
+  <si>
+    <t>法式衬衫新款</t>
+  </si>
+  <si>
+    <t>精致衬衫，提升你的职场魅力，让你的独立闪耀。“一个独立的女人，内心强大，拥有自己的思想和判断。”</t>
+  </si>
+  <si>
+    <t>[902473559256, 903223877732, 903324036531, 902171795031]</t>
+  </si>
+  <si>
+    <t>902473559256</t>
+  </si>
+  <si>
+    <t>903223877732</t>
+  </si>
+  <si>
+    <t>舒适休闲裤新款</t>
+  </si>
+  <si>
+    <t>舒适百搭休闲裤，自在行走，做自己的女王。“做一个独立的女性，拥有自己的梦想，并为之奋斗。”</t>
+  </si>
+  <si>
+    <t>[902776803476, 903056354937, 904053544670, 902775519645]</t>
+  </si>
+  <si>
+    <t>902776803476</t>
+  </si>
+  <si>
+    <t>903056354937</t>
+  </si>
+  <si>
+    <t>904053544670</t>
+  </si>
+  <si>
+    <t>甜美连衣裙新品</t>
+  </si>
+  <si>
+    <t>优雅气质连衣裙，展现女性的独特魅力，活出属于你的精彩。“不要等待机会，要创造机会，让自己的生活更加精彩。”</t>
+  </si>
+  <si>
+    <t>舒适透气的T恤，给你自在的穿着体验，“做一个独立的女性，不依附于任何人。”</t>
+  </si>
+  <si>
+    <t>[902426270325, 904046200023, 902828881820, 902879949636]</t>
   </si>
   <si>
     <t>904046200023</t>
   </si>
   <si>
-    <t>902426270325</t>
-  </si>
-  <si>
-    <t>902879949636</t>
-  </si>
-  <si>
-    <t>904683885004</t>
-  </si>
-  <si>
-    <t>半身裙，气质新品</t>
-  </si>
-  <si>
-    <t>半身裙轻盈飘逸，舞动着自信与优雅，正如亦舒所言：做一个精致的女子，活出自己的精彩。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  女装/女士精品&gt;  衬衫</t>
-  </si>
-  <si>
-    <t>[905056772241, 904167078313, 904164770593, 905043768030, 903859443982, 903822527113, 904988820876, 904967664739, 903900950373, 904774684694, 904763208777, 904329449658, 903664941894, 902907671402, 903193490155, 903159238877]</t>
-  </si>
-  <si>
-    <t>[904967664739, 904988820876, 904167078313, 904164770593]</t>
-  </si>
-  <si>
-    <t>904967664739</t>
+    <t>半身裙yyds！</t>
+  </si>
+  <si>
+    <t>百搭半身裙，展现你的优雅气质，“人生的意义在于活出自己。”</t>
+  </si>
+  <si>
+    <t>[904329449658, 904774684694, 903859443982, 903664941894]</t>
+  </si>
+  <si>
+    <t>904329449658</t>
+  </si>
+  <si>
+    <t>904774684694</t>
+  </si>
+  <si>
+    <t>903664941894</t>
+  </si>
+  <si>
+    <t>精致衬衫，提升你的职场魅力，“要像一棵树一样，独立成长。”</t>
+  </si>
+  <si>
+    <t>[902475519877, 902160607524, 902171795031, 903223877732]</t>
+  </si>
+  <si>
+    <t>休闲裤真舒服</t>
+  </si>
+  <si>
+    <t>柔软休闲裤，陪你轻松度过每一天，“要自由，就要活出真我。”</t>
+  </si>
+  <si>
+    <t>[904053544670, 902775519645, 902776803476, 903891930381]</t>
+  </si>
+  <si>
+    <t>仙女连衣裙</t>
+  </si>
+  <si>
+    <t>飘逸连衣裙，演绎你的独特风格，“女人应该拥有自己的事业，拥有属于自己的生活。”</t>
+  </si>
+  <si>
+    <t>新款T恤必入</t>
+  </si>
+  <si>
+    <t>经典T恤，永不过时的时尚选择，“独立自主，是女性最美的姿态。”</t>
+  </si>
+  <si>
+    <t>[902828881820, 902373542166, 904046200023, 904683885004]</t>
+  </si>
+  <si>
+    <t>气质半身裙</t>
+  </si>
+  <si>
+    <t>多款半身裙，总有一款适合你，“女人要勇敢地做自己，拥有自己的选择。”</t>
+  </si>
+  <si>
+    <t>[904763208777, 903664941894, 902907671402, 904988820876]</t>
+  </si>
+  <si>
+    <t>904763208777</t>
+  </si>
+  <si>
+    <t>902907671402</t>
   </si>
   <si>
     <t>904988820876</t>
   </si>
   <si>
-    <t>904167078313</t>
-  </si>
-  <si>
-    <t>904164770593</t>
-  </si>
-  <si>
-    <t>衬衫新品，好看到哭</t>
-  </si>
-  <si>
-    <t>衬衫的简洁干练，衬托出你的知性与魅力，正如三毛笔下的洒脱与自由，穿出你的独立姿态。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  女装/女士精品&gt;  裤子&gt;  休闲裤</t>
-  </si>
-  <si>
-    <t>[902475519877, 902473559256, 903223877732, 902171795031, 903324036531, 902160607524]</t>
-  </si>
-  <si>
-    <t>[902473559256, 902171795031, 903223877732, 902475519877]</t>
-  </si>
-  <si>
-    <t>902473559256</t>
-  </si>
-  <si>
-    <t>902171795031</t>
-  </si>
-  <si>
-    <t>903223877732</t>
-  </si>
-  <si>
-    <t>902475519877</t>
-  </si>
-  <si>
-    <t>休闲裤，舒适新品</t>
-  </si>
-  <si>
-    <t>休闲裤舒适自在，行走间尽显洒脱，如同林徽因般，从容优雅地走过人生的四季。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  女装/女士精品&gt;  连衣裙</t>
-  </si>
-  <si>
-    <t>[904362837625, 903891930381, 903598899672, 904063048589, 904053544670, 902776803476, 902775519645, 903056354937]</t>
-  </si>
-  <si>
-    <t>[903598899672, 904053544670, 904362837625, 902775519645]</t>
-  </si>
-  <si>
-    <t>903598899672</t>
-  </si>
-  <si>
-    <t>904053544670</t>
-  </si>
-  <si>
-    <t>904362837625</t>
-  </si>
-  <si>
-    <t>902775519645</t>
-  </si>
-  <si>
-    <t>连衣裙新品上架</t>
-  </si>
-  <si>
-    <t>连衣裙的浪漫与优雅，为你增添一份独特的魅力，正如张小娴笔下，爱情的甜蜜与美好，如同这裙装般令人心动。</t>
-  </si>
-  <si>
-    <t>T恤新品，绝美</t>
-  </si>
-  <si>
-    <t>T恤的百搭与舒适，让你在日常生活中轻松自在，如同简·奥斯汀笔下女性的理性与智慧，展现你的独特魅力。</t>
-  </si>
-  <si>
-    <t>[904046200023, 904683885004, 904205418560, 902373542166]</t>
-  </si>
-  <si>
-    <t>904205418560</t>
-  </si>
-  <si>
-    <t>902373542166</t>
-  </si>
-  <si>
-    <t>A字裙新品上市</t>
-  </si>
-  <si>
-    <t>半身裙的百变风格，满足你对时尚的所有幻想，如同琦君笔下，生活中的点点滴滴都充满诗意。</t>
-  </si>
-  <si>
-    <t>[903193490155, 904774684694, 903900950373, 904329449658]</t>
-  </si>
-  <si>
-    <t>903193490155</t>
-  </si>
-  <si>
-    <t>904774684694</t>
-  </si>
-  <si>
-    <t>903900950373</t>
-  </si>
-  <si>
-    <t>904329449658</t>
-  </si>
-  <si>
-    <t>气质衬衫新品</t>
-  </si>
-  <si>
-    <t>衬衫的经典款设计，彰显你的品味与格调，如同龙应台般，温婉而富有力量，展现你的独特魅力。</t>
-  </si>
-  <si>
-    <t>[903223877732, 902473559256, 903324036531, 902171795031]</t>
-  </si>
-  <si>
-    <t>903324036531</t>
-  </si>
-  <si>
-    <t>休闲裤，巨显瘦新品</t>
-  </si>
-  <si>
-    <t>休闲裤的舒适与便捷，让你轻松应对各种场合，如同李碧华笔下，女性的坚韧与独立，展现你的从容优雅。</t>
-  </si>
-  <si>
-    <t>[903891930381, 903598899672, 904063048589, 903056354937]</t>
-  </si>
-  <si>
-    <t>903891930381</t>
+    <t>新款衬衫上线</t>
+  </si>
+  <si>
+    <t>百变衬衫，搭配出你的专属风格，“女性的独立，在于拥有选择权。”</t>
+  </si>
+  <si>
+    <t>[903223877732, 903324036531, 902160607524, 902171795031]</t>
+  </si>
+  <si>
+    <t>休闲裤超好穿</t>
+  </si>
+  <si>
+    <t>舒适休闲裤，给你舒适的穿着感受，“追求独立，成就更好的自己。”</t>
+  </si>
+  <si>
+    <t>[903598899672, 904362837625, 904053544670, 904063048589]</t>
   </si>
   <si>
     <t>904063048589</t>
   </si>
   <si>
-    <t>903056354937</t>
-  </si>
-  <si>
-    <t>仙女连衣裙新品</t>
-  </si>
-  <si>
-    <t>连衣裙的时尚与潮流，让你成为人群中最闪耀的焦点，如同席慕蓉笔下，诗意的浪漫，让你更加迷人。</t>
-  </si>
-  <si>
-    <t>夏日新品T恤来啦！</t>
-  </si>
-  <si>
-    <t>舒适透气的T恤，让你的夏天轻盈如风，如同张爱玲笔下女子般优雅从容。</t>
-  </si>
-  <si>
-    <t>[904205418560, 902373542166, 902828881820, 902426270325]</t>
-  </si>
-  <si>
-    <t>902828881820</t>
-  </si>
-  <si>
-    <t>气质新品半身裙</t>
-  </si>
-  <si>
-    <t>半身裙轻盈飘逸，舞动着自信与美丽，正如三毛所言：心之所向，素履以往。</t>
-  </si>
-  <si>
-    <t>[904774684694, 902907671402, 904763208777, 905056772241]</t>
-  </si>
-  <si>
-    <t>902907671402</t>
-  </si>
-  <si>
-    <t>904763208777</t>
-  </si>
-  <si>
-    <t>905056772241</t>
-  </si>
-  <si>
-    <t>百搭新品衬衫上线</t>
-  </si>
-  <si>
-    <t>一件精致衬衫，点亮你的优雅气质，正如亦舒笔下独立女性般自信闪耀。</t>
-  </si>
-  <si>
-    <t>[902475519877, 902160607524, 902473559256, 903223877732]</t>
-  </si>
-  <si>
-    <t>902160607524</t>
-  </si>
-  <si>
-    <t>舒适新品休闲裤</t>
-  </si>
-  <si>
-    <t>休闲裤舒适百搭，轻松驾驭各种场合，正如林徽因般内外兼修，舒适自在。</t>
-  </si>
-  <si>
-    <t>[903598899672, 903056354937, 902776803476, 903891930381]</t>
-  </si>
-  <si>
-    <t>902776803476</t>
-  </si>
-  <si>
-    <t>优雅新品连衣裙</t>
-  </si>
-  <si>
-    <t>一件连衣裙，优雅自信，展现女性魅力，如同张小娴笔下爱情般浪漫美好。</t>
-  </si>
-  <si>
-    <t>清凉新品T恤来袭</t>
-  </si>
-  <si>
-    <t>经典百搭T恤，舒适透气，轻松穿出好心情，正如龙应台笔下母爱的温暖与力量。</t>
-  </si>
-  <si>
-    <t>[902373542166, 904205418560, 902879949636, 902828881820]</t>
-  </si>
-  <si>
-    <t>显瘦新品半身裙</t>
-  </si>
-  <si>
-    <t>百褶半身裙，优雅灵动，展现你的独特魅力，正如席慕容诗歌般温柔细腻。</t>
-  </si>
-  <si>
-    <t>[904967664739, 904164770593, 903159238877, 904988820876]</t>
-  </si>
-  <si>
-    <t>903159238877</t>
-  </si>
-  <si>
-    <t>潮流新品衬衫推荐</t>
-  </si>
-  <si>
-    <t>优质衬衫，提升你的职场形象，成就你的自信人生，正如苏童笔下女性的坚韧与美丽。</t>
-  </si>
-  <si>
-    <t>[902171795031, 903324036531, 902160607524, 903223877732]</t>
-  </si>
-  <si>
-    <t>透气新品休闲裤</t>
-  </si>
-  <si>
-    <t>柔软舒适休闲裤，休闲时尚两不误，如同简·奥斯汀笔下女性般独立自主。</t>
-  </si>
-  <si>
-    <t>[903891930381, 904362837625, 902775519645, 904063048589]</t>
-  </si>
-  <si>
-    <t>甜美新品连衣裙</t>
-  </si>
-  <si>
-    <t>飘逸连衣裙，让你在夏日里绽放迷人光彩，正如张爱玲笔下旗袍般优雅迷人。</t>
-  </si>
-  <si>
-    <t>T恤新品来袭!</t>
-  </si>
-  <si>
-    <t>夏日炎炎，一件舒适透气的T恤，给你带来清凉与自信，正如张爱玲所说：“喜欢一个人，会卑微到尘埃里，然后开出花来。”穿上它，绽放属于你的美丽。</t>
-  </si>
-  <si>
-    <t>[904683885004, 902879949636, 902426270325, 902373542166]</t>
-  </si>
-  <si>
-    <t>半身裙，超火!</t>
-  </si>
-  <si>
-    <t>半身裙的优雅与浪漫，让你在生活中散发迷人魅力，“生活是一袭华美的袍，爬满了虱子”，但一件美丽的半身裙，能让你在生活的缝隙中找到一丝光亮。</t>
-  </si>
-  <si>
-    <t>[905043768030, 904329449658, 904774684694, 903900950373]</t>
-  </si>
-  <si>
-    <t>905043768030</t>
-  </si>
-  <si>
-    <t>衬衫新品上市!</t>
-  </si>
-  <si>
-    <t>衬衫的干练与知性，赋予你职场上的自信与从容，“生命是一条奔流不息的河流”，而一件合适的衬衫，便是你乘风破浪的船桨。</t>
-  </si>
-  <si>
-    <t>[902171795031, 902160607524, 903223877732, 902473559256]</t>
-  </si>
-  <si>
-    <t>休闲裤，绝了!</t>
-  </si>
-  <si>
-    <t>休闲裤的舒适与随意，让你在休闲时光中尽情享受生活，“你必须非常努力，才能看起来毫不费力”，穿上它，轻松拥有舒适与时尚。</t>
-  </si>
-  <si>
-    <t>[904053544670, 904063048589, 902775519645, 902776803476]</t>
-  </si>
-  <si>
-    <t>连衣裙，真香!</t>
-  </si>
-  <si>
-    <t>连衣裙的飘逸与灵动，让你在夏日里展现女性的柔美与优雅，“我们曾经如此渴望命运的波澜，到最后才发现，人生最曼妙的风景，竟是内心的淡定与从容”，穿上它，遇见最美的自己。</t>
+    <t>新款连衣裙</t>
+  </si>
+  <si>
+    <t>浪漫连衣裙，绽放你的自信光芒，“做一个自信、独立、美丽的女性。”</t>
+  </si>
+  <si>
+    <t>做最真实的自己，穿上舒适透气的T恤，自在如风。</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>[902828881820, 904046200023, 902426270325, 902373542166]</t>
+  </si>
+  <si>
+    <t>半身裙，超显瘦！</t>
+  </si>
+  <si>
+    <t>裙摆飞扬，自信绽放，人生的舞台由你掌控。</t>
+  </si>
+  <si>
+    <t>[902907671402, 904988820876, 903159238877, 904164770593]</t>
+  </si>
+  <si>
+    <t>衬衫新款上市！</t>
+  </si>
+  <si>
+    <t>一件衬衫，百变风格，成就独立自信的你，“妇女解放运动”的旗帜在你的身上飘扬。</t>
+  </si>
+  <si>
+    <t>[902475519877, 902171795031, 902160607524, 903324036531]</t>
+  </si>
+  <si>
+    <t>休闲裤，巨舒服！</t>
+  </si>
+  <si>
+    <t>舒适休闲裤，解放双腿，奔赴你热爱的生活，“要生活，要自由，要独立”。</t>
+  </si>
+  <si>
+    <t>[902775519645, 902776803476, 903598899672, 904053544670]</t>
+  </si>
+  <si>
+    <t>连衣裙，美翻天！</t>
+  </si>
+  <si>
+    <t>优雅连衣裙，展现女性魅力，活出精彩的自己，“女人应像树叶一样，随风而舞，但不可失去枝干”。</t>
   </si>
 </sst>
 </file>
@@ -396,7 +423,21 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,7 +590,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,12 +599,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -749,12 +784,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -858,28 +908,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -888,124 +929,135 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1352,898 +1404,937 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="$A7:$XFD9"/>
+      <selection activeCell="A22" sqref="$A22:$XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="5" max="6" width="11.5"/>
-    <col min="7" max="7" width="21.25" customWidth="1"/>
-    <col min="8" max="8" width="26.125" customWidth="1"/>
-    <col min="10" max="10" width="87.875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="K7" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="K10" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="K15" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H17" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K17" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J18" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K18" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="I19" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="J19" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K19" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J20" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K20" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="I21" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="J21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H22" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I22" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>19</v>
+      </c>
+      <c r="O22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="I23" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J23" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>19</v>
+      </c>
+      <c r="O23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D24">
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="G24" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="I24" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J24" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>19</v>
+      </c>
+      <c r="O24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J25" t="s">
+        <v>124</v>
+      </c>
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" t="s">
         <v>115</v>
       </c>
-      <c r="K25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J26" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K26" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="O26" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
